--- a/IE407-Q5-v1.xlsx
+++ b/IE407-Q5-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlpErenYılmaz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eheng\OneDrive\Documents\GitHub\IE407-Term-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67762C6-3B2B-4A87-B88F-F2B89F33477B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED300ED3-5B56-4C96-B0A4-FFCA00A0FC75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" activeTab="1" xr2:uid="{29C75357-6D86-4F34-87D3-5ABA805A4EC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{29C75357-6D86-4F34-87D3-5ABA805A4EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1 Sensitivity" sheetId="2" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <definedName name="solver_num" localSheetId="1" hidden="1">11</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sayfa1!$B$55</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">2</definedName>
@@ -67,7 +68,7 @@
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
   </definedNames>
@@ -4100,17 +4101,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="OpenSolver1">
+        <xdr:cNvPr id="2" name="OpenSolver1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BD82DA-EF5D-46D8-9EBA-E8CA12A4898C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EA466A-13C0-4933-89F8-20712978057D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4118,8 +4119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24281476" y="1005840"/>
-          <a:ext cx="3499659" cy="4987637"/>
+          <a:off x="22258020" y="998220"/>
+          <a:ext cx="3208019" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4170,7 +4171,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4182,23 +4183,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>731519</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>665017</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="OpenSolver2">
+        <xdr:cNvPr id="3" name="OpenSolver2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6BDE26-C107-4DCD-B0C7-E5983CC3D949}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF05D854-C3CA-484F-9D9A-2C8A3787917C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4206,8 +4207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29252487" y="1005840"/>
-          <a:ext cx="3416530" cy="4987637"/>
+          <a:off x="26814779" y="998220"/>
+          <a:ext cx="3131821" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4258,7 +4259,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4270,23 +4271,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>678179</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="OpenSolver3">
+        <xdr:cNvPr id="4" name="OpenSolver3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB4F09C-4324-4B3B-AB46-AE2C6553613A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6620BB3E-620F-4542-88EF-CDA61FE9F382}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,8 +4295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34073871" y="1005840"/>
-          <a:ext cx="3325090" cy="4987637"/>
+          <a:off x="31234379" y="998220"/>
+          <a:ext cx="3048000" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4346,7 +4347,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4359,22 +4360,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>665017</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="OpenSolver4">
+        <xdr:cNvPr id="5" name="OpenSolver4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74FD3372-E492-4690-98A3-CC736D399F40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6578C5F2-26A8-4C80-AF7D-998594CC9221}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4382,8 +4383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38803811" y="1005840"/>
-          <a:ext cx="3325090" cy="4987637"/>
+          <a:off x="35570161" y="998220"/>
+          <a:ext cx="3048000" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4434,7 +4435,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4449,7 +4450,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -4459,10 +4460,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="OpenSolver5">
+        <xdr:cNvPr id="6" name="OpenSolver5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1C928F-8309-4A28-B475-207ACA227548}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72892A3-2E3D-44FC-B901-B64B36C83A92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4470,8 +4471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="764771" y="10806546"/>
-          <a:ext cx="856211" cy="207818"/>
+          <a:off x="701040" y="10728960"/>
+          <a:ext cx="784860" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4516,7 +4517,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4529,22 +4530,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>233764</xdr:colOff>
+      <xdr:colOff>233995</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="OpenSolver6">
+        <xdr:cNvPr id="7" name="OpenSolver6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA16B850-534F-42DF-908E-ED3E1B3E6073}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835F0516-11F5-4292-810D-1AB5913D8FF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4552,7 +4553,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="749300" y="10731500"/>
+          <a:off x="685800" y="10655300"/>
           <a:ext cx="249235" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4607,7 +4608,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4630,14 +4631,14 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="OpenSolver7">
+        <xdr:cNvPr id="8" name="OpenSolver7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A554C7B5-CF76-4C88-9582-3A1154F317A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18EB634-C826-4150-8410-AB413B40B8CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4645,8 +4646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1620982" y="12419215"/>
-          <a:ext cx="822960" cy="4987636"/>
+          <a:off x="1485900" y="12329160"/>
+          <a:ext cx="754380" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4691,7 +4692,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="0000FF"/>
             </a:solidFill>
@@ -4712,14 +4713,14 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="OpenSolver8">
+        <xdr:cNvPr id="9" name="OpenSolver8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD54C38-F8DD-4490-81D2-6CFDDE3D1EE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92186879-B365-4991-8FA0-5BEEAE38A09A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4727,8 +4728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3391593" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="3108960" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4774,7 +4775,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
@@ -4791,32 +4792,32 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="OpenSolver9">
+        <xdr:cNvPr id="10" name="OpenSolver9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F204DF0E-3EFA-4512-B039-DEE716C06B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243EC04-D877-4CF2-B75E-ADDFC5423786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="51" idx="1"/>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2443942" y="14913033"/>
-          <a:ext cx="947651" cy="0"/>
+          <a:off x="2240280" y="14805661"/>
+          <a:ext cx="868680" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4850,22 +4851,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>283325</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>172257</xdr:rowOff>
+      <xdr:rowOff>170181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>664325</xdr:colOff>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>27247</xdr:rowOff>
+      <xdr:rowOff>27941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="OpenSolver10">
+        <xdr:cNvPr id="11" name="OpenSolver10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E4F86E-772D-4E1B-A703-F8451C984ECB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D1E322-EF82-4CF5-ACE1-35AB2113575D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4873,7 +4874,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2727267" y="14786032"/>
+          <a:off x="2484120" y="14678661"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4928,7 +4929,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4945,14 +4946,14 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="OpenSolver11">
+        <xdr:cNvPr id="12" name="OpenSolver11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906D3AE0-DD02-430A-9C3E-3BDB1A6C8F85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C28BDBB-2725-4C06-813C-53B77934FAA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4960,8 +4961,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5569527" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="5105400" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5006,7 +5007,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="008000"/>
             </a:solidFill>
@@ -5019,22 +5020,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="OpenSolver12">
+        <xdr:cNvPr id="13" name="OpenSolver12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DAC50D-8FB8-4864-AC30-B59A78AD0403}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67971C5A-9BBD-4F5B-8069-1DFDFD4E1660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5042,8 +5043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7148946" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="6553200" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5089,7 +5090,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="008000"/>
               </a:solidFill>
@@ -5106,32 +5107,32 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="OpenSolver13">
+        <xdr:cNvPr id="14" name="OpenSolver13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9053BBC1-3E47-4FBD-8361-00C8B10F46D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9472B08A-A6AD-467E-8DB0-1C63285B5249}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="3"/>
-          <a:endCxn id="55" idx="1"/>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6242858" y="14913033"/>
-          <a:ext cx="906088" cy="0"/>
+          <a:off x="5722620" y="14805661"/>
+          <a:ext cx="830580" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5165,22 +5166,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>262544</xdr:colOff>
+      <xdr:colOff>224790</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>172257</xdr:rowOff>
+      <xdr:rowOff>170181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>643544</xdr:colOff>
+      <xdr:colOff>605790</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>27247</xdr:rowOff>
+      <xdr:rowOff>27941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="OpenSolver14">
+        <xdr:cNvPr id="15" name="OpenSolver14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C10640F-C918-4AD6-86F8-D02A0CE3661C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A7CCBF-C618-4D50-AF73-409C4C589F07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,7 +5189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6505402" y="14786032"/>
+          <a:off x="5947410" y="14678661"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5243,7 +5244,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5260,14 +5261,14 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="OpenSolver15">
+        <xdr:cNvPr id="16" name="OpenSolver15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EDB9D1-B687-48A1-B81F-630811EA5105}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264697CE-4258-4646-A62A-6B060428370E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5275,8 +5276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9168938" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="8404860" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5321,7 +5322,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="9900CC"/>
             </a:solidFill>
@@ -5342,14 +5343,14 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="OpenSolver16">
+        <xdr:cNvPr id="17" name="OpenSolver16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5179B6-59A3-4E98-8D88-DB47CB147AFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9DFDDD-5E99-4614-BAC1-4EEC7404FCC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5357,8 +5358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10515600" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="9639300" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5404,7 +5405,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="9900CC"/>
               </a:solidFill>
@@ -5421,32 +5422,32 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="OpenSolver17">
+        <xdr:cNvPr id="18" name="OpenSolver17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A19586-591D-4432-A41C-99E7EFA10A0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA82A2C-CF00-4A67-9271-DAECE4AD0185}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="59" idx="1"/>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9842269" y="14913033"/>
-          <a:ext cx="673331" cy="0"/>
+          <a:off x="9022080" y="14805661"/>
+          <a:ext cx="617220" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5480,22 +5481,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>146166</xdr:colOff>
+      <xdr:colOff>118110</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>172257</xdr:rowOff>
+      <xdr:rowOff>170181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>527166</xdr:colOff>
+      <xdr:colOff>499110</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>27247</xdr:rowOff>
+      <xdr:rowOff>27941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="OpenSolver18">
+        <xdr:cNvPr id="19" name="OpenSolver18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653A0C99-C56D-444E-ACAC-940086E67681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458C5F0D-C5E0-4B9A-87C9-1C131B774474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5503,7 +5504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9988435" y="14786032"/>
+          <a:off x="9140190" y="14678661"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5558,7 +5559,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5566,23 +5567,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>748145</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="OpenSolver19">
+        <xdr:cNvPr id="20" name="OpenSolver19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F1D3FB-311F-45D3-A86B-638C5608B7BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A14AED-E69C-4CF7-A4CE-C61139FF0FCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5590,8 +5591,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12602094" y="12419215"/>
-          <a:ext cx="673331" cy="997527"/>
+          <a:off x="11551920" y="12329160"/>
+          <a:ext cx="617219" cy="990601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5636,7 +5637,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="800000"/>
             </a:solidFill>
@@ -5655,16 +5656,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="OpenSolver20">
+        <xdr:cNvPr id="21" name="OpenSolver20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511B4932-58A8-448B-92BF-7D1E1EA3C8D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0704410-6D4C-4404-AED3-E452A4DB5FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5672,8 +5673,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13940444" y="12419215"/>
-          <a:ext cx="673331" cy="997527"/>
+          <a:off x="12778740" y="12329160"/>
+          <a:ext cx="617221" cy="990601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5719,7 +5720,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="800000"/>
               </a:solidFill>
@@ -5733,35 +5734,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>99754</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>99754</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="OpenSolver21">
+        <xdr:cNvPr id="22" name="OpenSolver21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C5AC64-4DBB-44E4-A68C-A0C215D5B75E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E17E18D-4677-4A97-8ABD-ED43E348B9A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="3"/>
-          <a:endCxn id="63" idx="1"/>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13275425" y="12917979"/>
-          <a:ext cx="665019" cy="0"/>
+          <a:off x="12169139" y="12824461"/>
+          <a:ext cx="609601" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5795,22 +5796,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>142010</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>172259</xdr:rowOff>
+      <xdr:rowOff>170181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523010</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>27248</xdr:rowOff>
+      <xdr:rowOff>27941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="OpenSolver22">
+        <xdr:cNvPr id="23" name="OpenSolver22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C9557-8FE3-417E-8DD3-109C707BB1DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A314316B-6FEF-46D0-8BFB-DEA127900482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5818,7 +5819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13417435" y="12790979"/>
+          <a:off x="12283440" y="12697461"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5873,7 +5874,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5889,15 +5890,15 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="OpenSolver23">
+        <xdr:cNvPr id="24" name="OpenSolver23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503E2364-27D4-430E-AE99-948F2357CDD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26E88C6-9556-4A91-AD41-2CB766ADE1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5905,8 +5906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15952124" y="12419215"/>
-          <a:ext cx="673331" cy="798022"/>
+          <a:off x="14622780" y="12329160"/>
+          <a:ext cx="617220" cy="792479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5951,7 +5952,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="00CC33"/>
             </a:solidFill>
@@ -5971,15 +5972,15 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="OpenSolver24">
+        <xdr:cNvPr id="25" name="OpenSolver24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E3207C-1C6C-47AC-8060-DE03FE7EC2D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BADC2BD-7D62-494C-80A3-C163A9CCB7B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5987,8 +5988,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17373600" y="12419215"/>
-          <a:ext cx="673331" cy="798022"/>
+          <a:off x="15925800" y="12329160"/>
+          <a:ext cx="617220" cy="792479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6034,7 +6035,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="00CC33"/>
               </a:solidFill>
@@ -6051,32 +6052,32 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="OpenSolver25">
+        <xdr:cNvPr id="26" name="OpenSolver25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1793A04-367A-4CB9-A0B2-66DFBFC73CA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E2810A-68DC-4FE6-8A6E-0E46678DC5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="66" idx="3"/>
-          <a:endCxn id="67" idx="1"/>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16625455" y="12818226"/>
-          <a:ext cx="748145" cy="0"/>
+          <a:off x="15240000" y="12725400"/>
+          <a:ext cx="685800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6110,22 +6111,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>183572</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>72506</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>564572</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="OpenSolver26">
+        <xdr:cNvPr id="27" name="OpenSolver26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B18DB18-34A1-4BB4-BA57-67FFC9835AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760E6227-E487-4D37-9482-A70D983B0CE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6133,7 +6134,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16809027" y="12691226"/>
+          <a:off x="15392400" y="12598400"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6188,7 +6189,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6197,7 +6198,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -6209,10 +6210,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="OpenSolver27">
+        <xdr:cNvPr id="28" name="OpenSolver27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F697BD43-3906-462D-9213-0DBC5C754C8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2EF363-A6C9-456A-A6C4-8F37EA82C45A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6220,8 +6221,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19393593" y="12419215"/>
-          <a:ext cx="3416531" cy="598516"/>
+          <a:off x="17777461" y="12329160"/>
+          <a:ext cx="3131819" cy="594360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6266,7 +6267,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF6600"/>
             </a:solidFill>
@@ -6284,17 +6285,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>739832</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="OpenSolver28">
+        <xdr:cNvPr id="29" name="OpenSolver28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5DE834-4C7B-4A65-B096-A978C457621B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEC97C3-E6D8-4496-8076-7A0472A67467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6302,8 +6303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23483455" y="12419215"/>
-          <a:ext cx="3624348" cy="598516"/>
+          <a:off x="21526500" y="12329160"/>
+          <a:ext cx="3322320" cy="594360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6349,7 +6350,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
@@ -6366,32 +6367,32 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="OpenSolver29">
+        <xdr:cNvPr id="30" name="OpenSolver29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF84CEAA-911A-4086-8C7A-2B91470A6731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD73ED7-FCF9-4DE2-BB83-59527B5D2819}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="70" idx="3"/>
-          <a:endCxn id="71" idx="1"/>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22810124" y="12718473"/>
-          <a:ext cx="673331" cy="0"/>
+          <a:off x="20909280" y="12626340"/>
+          <a:ext cx="617220" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6425,22 +6426,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>146165</xdr:colOff>
+      <xdr:colOff>118111</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>172258</xdr:rowOff>
+      <xdr:rowOff>170180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>527165</xdr:colOff>
+      <xdr:colOff>499111</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>27248</xdr:rowOff>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="OpenSolver30">
+        <xdr:cNvPr id="31" name="OpenSolver30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9525D44-8767-414C-A37D-E17316B3D37D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3273AFD-5657-4A27-8B6F-89E0B3C147D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6448,7 +6449,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22956289" y="12591473"/>
+          <a:off x="21027391" y="12499340"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6503,7 +6504,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6511,23 +6512,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>731519</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>673330</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="OpenSolver31">
+        <xdr:cNvPr id="32" name="OpenSolver31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6871AFE3-7023-43EB-88B5-0D758BB1050C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1005B154-F8D0-40C3-879F-A5D3F9CB035A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6535,8 +6536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29252487" y="12419215"/>
-          <a:ext cx="673330" cy="798022"/>
+          <a:off x="26814779" y="12329160"/>
+          <a:ext cx="617221" cy="792479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6581,7 +6582,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="CC0099"/>
             </a:solidFill>
@@ -6594,22 +6595,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="OpenSolver32">
+        <xdr:cNvPr id="33" name="OpenSolver32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6EE529-BBAD-4620-B398-908E63FB35B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD6153B-B467-4174-8EF8-1886F96CBACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6617,8 +6618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30599149" y="12419215"/>
-          <a:ext cx="739834" cy="798022"/>
+          <a:off x="28049221" y="12329160"/>
+          <a:ext cx="678179" cy="792479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6664,7 +6665,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="CC0099"/>
               </a:solidFill>
@@ -6678,35 +6679,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>673330</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="OpenSolver33">
+        <xdr:cNvPr id="34" name="OpenSolver33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC07300C-6CB3-4A2F-AA84-FE7467F25377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABB16E3-9A58-4D65-9D39-793C14A49A4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="74" idx="3"/>
-          <a:endCxn id="75" idx="1"/>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29925817" y="12818226"/>
-          <a:ext cx="673332" cy="0"/>
+          <a:off x="27432000" y="12725400"/>
+          <a:ext cx="617221" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6740,22 +6741,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>146163</xdr:colOff>
+      <xdr:colOff>118111</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>72506</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>527163</xdr:colOff>
+      <xdr:colOff>499111</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="OpenSolver34">
+        <xdr:cNvPr id="35" name="OpenSolver34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDC238F-609D-4034-833C-912DA9931228}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C14CCE3-821E-463A-AD9F-3BA9423C3242}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6763,7 +6764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30071981" y="12691226"/>
+          <a:off x="27550111" y="12598400"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6818,7 +6819,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6832,17 +6833,17 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="OpenSolver35">
+        <xdr:cNvPr id="36" name="OpenSolver35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BCBEFF-E7DC-4794-A2AD-EBAC565BD113}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F87FACF-5DF2-46CD-8EF4-C0CBE7891D91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6850,8 +6851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24294176" y="1018540"/>
-          <a:ext cx="3486959" cy="4974937"/>
+          <a:off x="22270720" y="1010920"/>
+          <a:ext cx="3195319" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6896,7 +6897,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -6909,22 +6910,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>924</xdr:colOff>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133465</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>322166</xdr:colOff>
+      <xdr:colOff>326322</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="OpenSolver36">
+        <xdr:cNvPr id="37" name="OpenSolver36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA543A7E-8E33-4369-93D3-48B68C1DF57C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B60366-CADF-4D7D-8827-B0AF7137DB26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6932,7 +6933,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24282400" y="939800"/>
+          <a:off x="22263100" y="939800"/>
           <a:ext cx="321242" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6987,7 +6988,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7002,22 +7003,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>12699</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>665017</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="OpenSolver37">
+        <xdr:cNvPr id="38" name="OpenSolver37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE9AD9C-1A33-421B-A1F1-1D1A24E31A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5344CA1D-64D4-4E8D-9311-AF46E2142049}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7025,8 +7026,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29265187" y="1018540"/>
-          <a:ext cx="3403830" cy="4974937"/>
+          <a:off x="26827479" y="1010920"/>
+          <a:ext cx="3119121" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7071,7 +7072,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -7084,22 +7085,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>793635</xdr:colOff>
+      <xdr:colOff>726440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133465</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>316855</xdr:colOff>
+      <xdr:colOff>316162</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="OpenSolver38">
+        <xdr:cNvPr id="39" name="OpenSolver38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14756D8-39D7-49F8-AE91-575D00E9C65F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E75F99D-A491-41C2-A0F5-F961D3B2EF1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7107,7 +7108,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29248100" y="939800"/>
+          <a:off x="26809700" y="939800"/>
           <a:ext cx="321242" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7162,7 +7163,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7177,22 +7178,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>12702</xdr:colOff>
+      <xdr:colOff>12699</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="OpenSolver39">
+        <xdr:cNvPr id="40" name="OpenSolver39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C75CC78-9F87-480B-BC1E-7DE382DAB67B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1179EAF5-B0C4-473D-A327-65950ECD8ABA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7200,8 +7201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34086571" y="1018540"/>
-          <a:ext cx="3312390" cy="4974937"/>
+          <a:off x="31247079" y="1010920"/>
+          <a:ext cx="3035300" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7246,7 +7247,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -7258,23 +7259,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>231</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133465</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>321473</xdr:colOff>
+      <xdr:colOff>316162</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="OpenSolver40">
+        <xdr:cNvPr id="41" name="OpenSolver40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E509BD-ECC3-4E33-884B-CC7F2352D613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775DE3C4-FA4E-4EF8-BCC1-11D7C31BBABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7282,7 +7283,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34074100" y="939800"/>
+          <a:off x="31229300" y="939800"/>
           <a:ext cx="321242" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7337,7 +7338,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7352,22 +7353,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>12701</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>665017</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="OpenSolver41">
+        <xdr:cNvPr id="42" name="OpenSolver41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC5818A-DBBF-4421-A6EF-B02AF5608156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF62D0E-2BE3-4034-A39D-D6626D8409CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7375,8 +7376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38816511" y="1018540"/>
-          <a:ext cx="3312390" cy="4974937"/>
+          <a:off x="35582861" y="1010920"/>
+          <a:ext cx="3035300" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7421,7 +7422,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -7433,23 +7434,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>734522</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133465</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>315931</xdr:colOff>
+      <xdr:colOff>323782</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="OpenSolver42">
+        <xdr:cNvPr id="43" name="OpenSolver42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B03C3DF-D907-4ADE-B404-8D93BCCA1726}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B01DC04-6202-4D80-B7D3-927C4D0171C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7457,7 +7458,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38798500" y="939800"/>
+          <a:off x="35572700" y="939800"/>
           <a:ext cx="321242" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7512,7 +7513,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7830,7 +7831,7 @@
       <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="56" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -7842,12 +7843,12 @@
     <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>41</v>
       </c>
@@ -7859,7 +7860,7 @@
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>1160</v>
       </c>
@@ -7871,7 +7872,7 @@
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -7915,7 +7916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="47" t="s">
         <v>50</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="s">
         <v>51</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
         <v>52</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>53</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
         <v>54</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
         <v>55</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>56</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B14" s="47" t="s">
         <v>57</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="s">
         <v>58</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B16" s="47" t="s">
         <v>59</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
         <v>60</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="s">
         <v>61</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B19" s="47" t="s">
         <v>62</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
         <v>63</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
         <v>64</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B22" s="47" t="s">
         <v>65</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B23" s="47" t="s">
         <v>66</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B24" s="47" t="s">
         <v>67</v>
       </c>
@@ -8293,7 +8294,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B25" s="47" t="s">
         <v>68</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B26" s="47" t="s">
         <v>69</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
         <v>70</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>71</v>
       </c>
@@ -18394,7 +18395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B506" s="50" t="s">
         <v>549</v>
       </c>
@@ -18424,7 +18425,7 @@
       <c r="G507" s="46"/>
       <c r="H507" s="46"/>
     </row>
-    <row r="508" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="56" t="s">
         <v>550</v>
       </c>
@@ -18436,7 +18437,7 @@
       <c r="G508" s="46"/>
       <c r="H508" s="46"/>
     </row>
-    <row r="509" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B509" s="53" t="s">
         <v>43</v>
       </c>
@@ -32213,7 +32214,7 @@
         <v>0.70698916050000005</v>
       </c>
     </row>
-    <row r="1108" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1108" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1108" s="50" t="s">
         <v>1159</v>
       </c>
@@ -32259,7 +32260,7 @@
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -32301,7 +32302,7 @@
     <col min="70" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:81" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -32321,7 +32322,7 @@
       <c r="R1" s="38"/>
       <c r="S1" s="38"/>
     </row>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -32407,7 +32408,7 @@
       <c r="CB2" s="3"/>
       <c r="CC2" s="5"/>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -32493,7 +32494,7 @@
       <c r="CB3" s="8"/>
       <c r="CC3" s="9"/>
     </row>
-    <row r="4" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -32590,7 +32591,7 @@
       <c r="CB4" s="8"/>
       <c r="CC4" s="9"/>
     </row>
-    <row r="5" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
@@ -32780,7 +32781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B6" s="41">
         <v>1</v>
       </c>
@@ -32870,7 +32871,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="16">
         <v>0</v>
@@ -32892,7 +32893,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="8"/>
       <c r="AV6" s="23">
@@ -32949,11 +32950,11 @@
       </c>
       <c r="BN6" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="23">
@@ -32973,11 +32974,11 @@
       </c>
       <c r="BU6" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW6" s="8"/>
       <c r="BX6" s="23">
@@ -32997,14 +32998,14 @@
       </c>
       <c r="CB6" s="16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.3">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="7" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B7" s="41">
         <v>2</v>
       </c>
@@ -33228,7 +33229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B8" s="41">
         <v>3</v>
       </c>
@@ -33452,7 +33453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B9" s="41">
         <v>4</v>
       </c>
@@ -33539,13 +33540,13 @@
         <v>0</v>
       </c>
       <c r="AK9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="16">
         <v>0</v>
       </c>
       <c r="AM9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="8"/>
       <c r="AO9" s="23">
@@ -33617,7 +33618,7 @@
       </c>
       <c r="BM9" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN9" s="16">
         <f t="shared" si="11"/>
@@ -33625,7 +33626,7 @@
       </c>
       <c r="BO9" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="8"/>
       <c r="BQ9" s="23">
@@ -33641,7 +33642,7 @@
       </c>
       <c r="BT9" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="16">
         <f t="shared" si="16"/>
@@ -33649,7 +33650,7 @@
       </c>
       <c r="BV9" s="16">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW9" s="8"/>
       <c r="BX9" s="23">
@@ -33665,7 +33666,7 @@
       </c>
       <c r="CA9" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB9" s="16">
         <f t="shared" si="21"/>
@@ -33673,10 +33674,10 @@
       </c>
       <c r="CC9" s="19">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" s="41">
         <v>5</v>
       </c>
@@ -33900,7 +33901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B11" s="41">
         <v>6</v>
       </c>
@@ -33993,7 +33994,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="8"/>
       <c r="AO11" s="23">
@@ -34073,7 +34074,7 @@
       </c>
       <c r="BO11" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="23">
@@ -34097,7 +34098,7 @@
       </c>
       <c r="BV11" s="16">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="8"/>
       <c r="BX11" s="23">
@@ -34121,10 +34122,10 @@
       </c>
       <c r="CC11" s="19">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:81" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
         <v>7</v>
       </c>
@@ -34348,7 +34349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
         <v>8</v>
       </c>
@@ -34572,7 +34573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B14" s="41">
         <v>9</v>
       </c>
@@ -34796,7 +34797,7 @@
         <v>2.4082246852806923</v>
       </c>
     </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B15" s="41">
         <v>10</v>
       </c>
@@ -34880,7 +34881,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="16">
         <v>0</v>
@@ -34905,7 +34906,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="16">
         <v>0</v>
@@ -34957,7 +34958,7 @@
       </c>
       <c r="BL15" s="16">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM15" s="16">
         <f t="shared" si="10"/>
@@ -34965,7 +34966,7 @@
       </c>
       <c r="BN15" s="16">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO15" s="16">
         <f t="shared" si="12"/>
@@ -34981,7 +34982,7 @@
       </c>
       <c r="BS15" s="16">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="16">
         <f t="shared" si="15"/>
@@ -34989,7 +34990,7 @@
       </c>
       <c r="BU15" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV15" s="16">
         <f t="shared" si="17"/>
@@ -35005,7 +35006,7 @@
       </c>
       <c r="BZ15" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA15" s="16">
         <f t="shared" si="20"/>
@@ -35013,14 +35014,14 @@
       </c>
       <c r="CB15" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.7411011265922482</v>
       </c>
       <c r="CC15" s="19">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
         <v>11</v>
       </c>
@@ -35113,7 +35114,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="8"/>
       <c r="AO16" s="23">
@@ -35193,7 +35194,7 @@
       </c>
       <c r="BO16" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="23">
@@ -35217,7 +35218,7 @@
       </c>
       <c r="BV16" s="16">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW16" s="8"/>
       <c r="BX16" s="23">
@@ -35241,10 +35242,10 @@
       </c>
       <c r="CC16" s="19">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:81" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>12</v>
       </c>
@@ -35468,7 +35469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>13</v>
       </c>
@@ -35555,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="16">
         <v>0</v>
@@ -35633,7 +35634,7 @@
       </c>
       <c r="BM18" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="16">
         <f t="shared" si="11"/>
@@ -35657,7 +35658,7 @@
       </c>
       <c r="BT18" s="16">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="16">
         <f t="shared" si="16"/>
@@ -35681,7 +35682,7 @@
       </c>
       <c r="CA18" s="16">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB18" s="16">
         <f t="shared" si="21"/>
@@ -35692,7 +35693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>14</v>
       </c>
@@ -35916,7 +35917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>15</v>
       </c>
@@ -36057,13 +36058,13 @@
         <v>0</v>
       </c>
       <c r="BE20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="16">
         <v>0</v>
       </c>
       <c r="BG20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="19">
         <v>0</v>
@@ -36077,7 +36078,7 @@
       </c>
       <c r="BL20" s="16">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="16">
         <f t="shared" si="10"/>
@@ -36085,7 +36086,7 @@
       </c>
       <c r="BN20" s="16">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO20" s="16">
         <f t="shared" si="12"/>
@@ -36101,7 +36102,7 @@
       </c>
       <c r="BS20" s="16">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="16">
         <f t="shared" si="15"/>
@@ -36109,7 +36110,7 @@
       </c>
       <c r="BU20" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV20" s="16">
         <f t="shared" si="17"/>
@@ -36125,7 +36126,7 @@
       </c>
       <c r="BZ20" s="16">
         <f t="shared" si="19"/>
-        <v>3.031433133020796</v>
+        <v>0</v>
       </c>
       <c r="CA20" s="16">
         <f t="shared" si="20"/>
@@ -36133,14 +36134,14 @@
       </c>
       <c r="CB20" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3.031433133020796</v>
       </c>
       <c r="CC20" s="19">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>16</v>
       </c>
@@ -36364,7 +36365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>17</v>
       </c>
@@ -36588,7 +36589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>18</v>
       </c>
@@ -36812,7 +36813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>19</v>
       </c>
@@ -37036,7 +37037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>20</v>
       </c>
@@ -37260,7 +37261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>21</v>
       </c>
@@ -37344,13 +37345,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="16">
         <v>0</v>
       </c>
       <c r="AL26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="16">
         <v>0</v>
@@ -37421,7 +37422,7 @@
       </c>
       <c r="BL26" s="16">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26" s="16">
         <f t="shared" si="10"/>
@@ -37429,7 +37430,7 @@
       </c>
       <c r="BN26" s="16">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO26" s="16">
         <f t="shared" si="12"/>
@@ -37445,7 +37446,7 @@
       </c>
       <c r="BS26" s="16">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT26" s="16">
         <f t="shared" si="15"/>
@@ -37453,7 +37454,7 @@
       </c>
       <c r="BU26" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV26" s="16">
         <f t="shared" si="17"/>
@@ -37469,7 +37470,7 @@
       </c>
       <c r="BZ26" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA26" s="16">
         <f t="shared" si="20"/>
@@ -37477,14 +37478,14 @@
       </c>
       <c r="CB26" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC26" s="19">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>22</v>
       </c>
@@ -37708,7 +37709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>23</v>
       </c>
@@ -37932,7 +37933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>24</v>
       </c>
@@ -38156,7 +38157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>25</v>
       </c>
@@ -38297,13 +38298,13 @@
         <v>0</v>
       </c>
       <c r="BE30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="16">
         <v>0</v>
       </c>
       <c r="BG30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="19">
         <v>0</v>
@@ -38317,7 +38318,7 @@
       </c>
       <c r="BL30" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM30" s="16">
         <f t="shared" si="10"/>
@@ -38325,7 +38326,7 @@
       </c>
       <c r="BN30" s="16">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30" s="16">
         <f t="shared" si="12"/>
@@ -38341,7 +38342,7 @@
       </c>
       <c r="BS30" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT30" s="16">
         <f t="shared" si="15"/>
@@ -38349,7 +38350,7 @@
       </c>
       <c r="BU30" s="16">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV30" s="16">
         <f t="shared" si="17"/>
@@ -38365,7 +38366,7 @@
       </c>
       <c r="BZ30" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.4822022531844965</v>
       </c>
       <c r="CA30" s="16">
         <f t="shared" si="20"/>
@@ -38373,14 +38374,14 @@
       </c>
       <c r="CB30" s="16">
         <f t="shared" si="21"/>
-        <v>3.4822022531844965</v>
+        <v>0</v>
       </c>
       <c r="CC30" s="19">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -38562,7 +38563,7 @@
       <c r="CB32" s="8"/>
       <c r="CC32" s="9"/>
     </row>
-    <row r="33" spans="2:81" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:81" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="41">
         <v>1</v>
       </c>
@@ -38654,7 +38655,7 @@
       <c r="CB33" s="26"/>
       <c r="CC33" s="27"/>
     </row>
-    <row r="34" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>2</v>
       </c>
@@ -38719,7 +38720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>3</v>
       </c>
@@ -38791,7 +38792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>4</v>
       </c>
@@ -38836,7 +38837,7 @@
       <c r="AE36" s="8"/>
       <c r="AF36" s="9"/>
     </row>
-    <row r="37" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>5</v>
       </c>
@@ -38881,7 +38882,7 @@
       <c r="AE37" s="8"/>
       <c r="AF37" s="9"/>
     </row>
-    <row r="38" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B38" s="32"/>
       <c r="C38" s="28"/>
       <c r="D38" s="8"/>
@@ -38914,7 +38915,7 @@
       <c r="AE38" s="8"/>
       <c r="AF38" s="9"/>
     </row>
-    <row r="39" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -38947,7 +38948,7 @@
       <c r="AE39" s="8"/>
       <c r="AF39" s="9"/>
     </row>
-    <row r="40" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -38980,7 +38981,7 @@
       <c r="AE40" s="8"/>
       <c r="AF40" s="9"/>
     </row>
-    <row r="41" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
@@ -39015,7 +39016,7 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="9"/>
     </row>
-    <row r="42" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>2</v>
       </c>
@@ -39052,7 +39053,7 @@
       <c r="AE42" s="8"/>
       <c r="AF42" s="9"/>
     </row>
-    <row r="43" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>3</v>
       </c>
@@ -39089,7 +39090,7 @@
       <c r="AE43" s="8"/>
       <c r="AF43" s="9"/>
     </row>
-    <row r="44" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>16</v>
       </c>
@@ -39126,7 +39127,7 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="9"/>
     </row>
-    <row r="45" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -39159,7 +39160,7 @@
       <c r="AE45" s="8"/>
       <c r="AF45" s="9"/>
     </row>
-    <row r="46" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>20</v>
       </c>
@@ -39194,7 +39195,7 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="9"/>
     </row>
-    <row r="47" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>1</v>
       </c>
@@ -39231,7 +39232,7 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="9"/>
     </row>
-    <row r="48" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
         <v>3</v>
       </c>
@@ -39271,7 +39272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B49" s="7">
         <v>9</v>
       </c>
@@ -39312,7 +39313,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:91" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="25">
         <v>16</v>
       </c>
@@ -39353,13 +39354,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:91" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AH51" s="1">
         <f ca="1">SUM(INDIRECT(ADDRESS(6,26+ROWS($A$1:A3))):INDIRECT(ADDRESS(30,26+ROWS($A$1:A3))))</f>
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
@@ -39377,7 +39378,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -39393,7 +39394,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -39405,10 +39406,10 @@
       <c r="I54" s="11"/>
       <c r="J54" s="34"/>
     </row>
-    <row r="55" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:91" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="25" cm="1">
         <f t="array" ref="B55">SUMPRODUCT(MMULT(BY6:CC30*C6:C30*L6:L30*POWER(F6:F30,O6:O30),I33:I37))</f>
-        <v>6809.2258507935576</v>
+        <v>6845.9007972353684</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -39420,8 +39421,8 @@
       <c r="I55" s="26"/>
       <c r="J55" s="27"/>
     </row>
-    <row r="56" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:91" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
@@ -39515,7 +39516,7 @@
       <c r="CL57" s="8"/>
       <c r="CM57" s="8"/>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -39607,7 +39608,7 @@
       <c r="CL58" s="8"/>
       <c r="CM58" s="8"/>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -39699,7 +39700,7 @@
       <c r="CL59" s="8"/>
       <c r="CM59" s="8"/>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
@@ -39792,7 +39793,7 @@
       <c r="CL60" s="8"/>
       <c r="CM60" s="8"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
@@ -39885,7 +39886,7 @@
       <c r="CL61" s="8"/>
       <c r="CM61" s="8"/>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
         <v>22</v>
@@ -39992,7 +39993,7 @@
       <c r="CL62" s="8"/>
       <c r="CM62" s="8"/>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8">
@@ -40009,7 +40010,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8" cm="1">
         <f t="array" ref="H63">SUM(AA6:AE6*BR6:BV6-R6*BK6:BO6)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>25</v>
@@ -40021,7 +40022,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8" cm="1">
         <f t="array" ref="M63">SUM(AA6:AE6*BR6:BV6-U6*BK6:BO6)</f>
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="N63" s="8" t="s">
         <v>21</v>
@@ -40154,7 +40155,7 @@
       <c r="CL63" s="8"/>
       <c r="CM63" s="8"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8">
@@ -40195,7 +40196,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8" cm="1">
         <f t="array" aca="1" ref="R64" ca="1">-C34+SUM(INDIRECT(ADDRESS(6,69+ROWS($A$1:A2))):INDIRECT(ADDRESS(30,69+ROWS($A$1:A2)))*$F$6:$F$30)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S64" s="8" t="s">
         <v>21</v>
@@ -40316,7 +40317,7 @@
       <c r="CL64" s="8"/>
       <c r="CM64" s="8"/>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8">
@@ -40478,7 +40479,7 @@
       <c r="CL65" s="8"/>
       <c r="CM65" s="8"/>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8">
@@ -40495,7 +40496,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8" cm="1">
         <f t="array" ref="H66">SUM(AA9:AE9*BR9:BV9-R9*BK9:BO9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>25</v>
@@ -40507,7 +40508,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8" cm="1">
         <f t="array" ref="M66">SUM(AA9:AE9*BR9:BV9-U9*BK9:BO9)</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="N66" s="8" t="s">
         <v>21</v>
@@ -40519,7 +40520,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8" cm="1">
         <f t="array" aca="1" ref="R66" ca="1">-C36+SUM(INDIRECT(ADDRESS(6,69+ROWS($A$1:A4))):INDIRECT(ADDRESS(30,69+ROWS($A$1:A4)))*$F$6:$F$30)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="8" t="s">
         <v>21</v>
@@ -40739,7 +40740,7 @@
       <c r="B68" s="10"/>
       <c r="C68" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>21</v>
@@ -40751,7 +40752,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8" cm="1">
         <f t="array" ref="H68">SUM(AA11:AE11*BR11:BV11-R11*BK11:BO11)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>25</v>
@@ -40763,7 +40764,7 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8" cm="1">
         <f t="array" ref="M68">SUM(AA11:AE11*BR11:BV11-U11*BK11:BO11)</f>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="N68" s="8" t="s">
         <v>21</v>
@@ -41207,7 +41208,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8" cm="1">
         <f t="array" ref="H72">SUM(AA15:AE15*BR15:BV15-R15*BK15:BO15)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>25</v>
@@ -41219,7 +41220,7 @@
       <c r="L72" s="8"/>
       <c r="M72" s="8" cm="1">
         <f t="array" ref="M72">SUM(AA15:AE15*BR15:BV15-U15*BK15:BO15)</f>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="N72" s="8" t="s">
         <v>21</v>
@@ -41309,7 +41310,7 @@
       <c r="B73" s="10"/>
       <c r="C73" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>21</v>
@@ -41321,7 +41322,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8" cm="1">
         <f t="array" ref="H73">SUM(AA16:AE16*BR16:BV16-R16*BK16:BO16)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>25</v>
@@ -41333,7 +41334,7 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8" cm="1">
         <f t="array" ref="M73">SUM(AA16:AE16*BR16:BV16-U16*BK16:BO16)</f>
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="N73" s="8" t="s">
         <v>21</v>
@@ -41536,7 +41537,7 @@
       <c r="B75" s="10"/>
       <c r="C75" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>21</v>
@@ -41548,7 +41549,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8" cm="1">
         <f t="array" ref="H75">SUM(AA18:AE18*BR18:BV18-R18*BK18:BO18)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>25</v>
@@ -41560,7 +41561,7 @@
       <c r="L75" s="8"/>
       <c r="M75" s="8" cm="1">
         <f t="array" ref="M75">SUM(AA18:AE18*BR18:BV18-U18*BK18:BO18)</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="N75" s="8" t="s">
         <v>21</v>
@@ -42907,7 +42908,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8" cm="1">
         <f t="array" ref="H87">SUM(AA30:AE30*BR30:BV30-R30*BK30:BO30)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>25</v>
@@ -42919,7 +42920,7 @@
       <c r="L87" s="8"/>
       <c r="M87" s="8" cm="1">
         <f t="array" ref="M87">SUM(AA30:AE30*BR30:BV30-U30*BK30:BO30)</f>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="N87" s="8" t="s">
         <v>21</v>
@@ -43190,7 +43191,7 @@
       <c r="CL89" s="8"/>
       <c r="CM89" s="8"/>
     </row>
-    <row r="90" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:91" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="44"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
@@ -45008,18 +45009,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45155,6 +45156,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F82F3A-971A-4E00-BEE7-5E3A8CB8E835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9105EF9-87DC-400D-AF3A-CEFE01235C70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -45166,14 +45175,6 @@
     <ds:schemaRef ds:uri="b79073fe-1e48-4a97-9229-baaa8603d156"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F82F3A-971A-4E00-BEE7-5E3A8CB8E835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
